--- a/biology/Botanique/Valonia/Valonia.xlsx
+++ b/biology/Botanique/Valonia/Valonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Valonia est un genre d'algues vertes de la famille des Valoniaceae. La taille d'une seule cellule pluri-nucléée peut atteindre 2 cm chez certaines espèces. 
 L'espèce-type (l'holotype) est Valonia aegagropila.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'étymologie du nom de genre Valonia n'est pas claire. Le nom aurait été attribué par le naturaliste italien du XVIIIe siècle Giuseppe Ginanni[note 1] pour nommer une algue commune dans la lagune de Venise[1]. Par la suite, au XIXe siècle, le botaniste Agardh utilisa ce nom vernaculaire en tant que genre[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom de genre Valonia n'est pas claire. Le nom aurait été attribué par le naturaliste italien du XVIIIe siècle Giuseppe Ginanni[note 1] pour nommer une algue commune dans la lagune de Venise. Par la suite, au XIXe siècle, le botaniste Agardh utilisa ce nom vernaculaire en tant que genre.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Valonia fastigiata
